--- a/dataset/squid-tweets/squid-dataset-cleaned.xlsx
+++ b/dataset/squid-tweets/squid-dataset-cleaned.xlsx
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -4363,7 +4363,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -4479,7 +4479,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
